--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -152,17 +152,6 @@
         <v>31.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
